--- a/INFORMATIVO 16° GRE.xlsx
+++ b/INFORMATIVO 16° GRE.xlsx
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KIQ-8720</t>
+          <t>KZQ-8720</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KIQ-8720</t>
+          <t>KZQ-8720</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>KIQ-8720</t>
+          <t>KZQ-8720</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1460,12 +1460,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KIQ-8720</t>
+          <t>KZQ-8720</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>KIQ-8720</t>
+          <t>KZQ-8720</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1524,7 +1524,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KIQ-8720</t>
+          <t>KZQ-8720</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17, 17, 17, 17</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17, 17</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17, 17</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>~, 12</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">

--- a/INFORMATIVO 16° GRE.xlsx
+++ b/INFORMATIVO 16° GRE.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 13, 14, 15, 16, 17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 13, 14, 15, 16, 17</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 13, 14, 15, 16, 17</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>~, 17, 17, 17, 17</t>
+          <t>~, 12, 14, 17</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>~, 17, 17</t>
+          <t>~, 14, 17</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 16, 17</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 13, 14, 15, 16, 17</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>~, 17, 17</t>
+          <t>~, 14, 16, 17</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">

--- a/INFORMATIVO 16° GRE.xlsx
+++ b/INFORMATIVO 16° GRE.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 13, 14, 15, 16, 17</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 13, 14, 15, 16, 17</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 15, 17</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 13, 14, 15, 17</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 14, 15</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 16, 17</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 15</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 13, 14, 15, 17, 16</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 13, 14, 15, 17, 16</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 13, 14, 15, 16, 17</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 13, 14, 15, 16, 17</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 12, 13, 14, 15, 16, 17</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17, 16</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 16, 17</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 17</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">

--- a/INFORMATIVO 16° GRE.xlsx
+++ b/INFORMATIVO 16° GRE.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17</t>
+          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17</t>
+          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17</t>
+          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~, 17, 19</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17</t>
+          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17</t>
+          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~, 16, 17</t>
+          <t>~, 16, 17, 20</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 17, 16</t>
+          <t>~, 12, 13, 14, 15, 17, 16, 19, 20</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~, 17, 19, 20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 17, 16</t>
+          <t>~, 12, 13, 14, 15, 17, 16, 19, 20</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~, 17, 19, 20</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17</t>
+          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17</t>
+          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>~, 16, 17</t>
+          <t>~, 16, 17, 20</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17</t>
+          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17</t>
+          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>~, 14, 16, 17</t>
+          <t>~, 14, 16, 17, 20</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>~, 17, 16</t>
+          <t>~, 17, 16, 19, 20</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~, 17, 19, 20</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>~, 16, 17</t>
+          <t>~, 16, 17, 19, 20</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~, 17, 19, 20</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">

--- a/INFORMATIVO 16° GRE.xlsx
+++ b/INFORMATIVO 16° GRE.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~, 15</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~, 17, 19</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>~, 15, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>~, 13, 14, 15, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>~, 16</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>~, 12, 14, 15</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~, 16, 17, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>~, 15</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 17, 16, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>~, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>~, 12, 14, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 17, 16, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>~, 17, 19, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>~, 14, 17</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>~, 16, 17, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>~, 12, 13, 14, 15, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>~, 14, 16, 17, 20</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>~, 17, 16, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>~, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>~, 16, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>~, 17, 19, 20</t>
+          <t>~, 21</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">

--- a/INFORMATIVO 16° GRE.xlsx
+++ b/INFORMATIVO 16° GRE.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 23, 24, 26</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 26</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22, 23, 24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 26</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22, 23, 24</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 26</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22, 23, 24</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 23</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 26</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 24</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 26</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 24, 26</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>~, 21</t>
+          <t>~, 21, 22, 23, 24, 26</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">

--- a/INFORMATIVO 16° GRE.xlsx
+++ b/INFORMATIVO 16° GRE.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 28, 29, 30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>~, 24</t>
+          <t>~, 24, 28, 29</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>~, 22</t>
+          <t>~, 22, 28, 29</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>~, 26</t>
+          <t>~, 26, 27</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~, 22, 23, 24</t>
+          <t>~, 22, 23, 24, 29, 30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>~, 26</t>
+          <t>~, 26, 27</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~, 22, 23, 24</t>
+          <t>~, 22, 23, 24, 29</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>~, 26</t>
+          <t>~, 26, 27</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~, 22, 23, 24</t>
+          <t>~, 22, 23, 24, 28, 29</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~, 24</t>
+          <t>~, 24, 29, 30</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 29</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>~, 24</t>
+          <t>~, 24, 29</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 27</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>~, 26</t>
+          <t>~, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>~, 21, 24</t>
+          <t>~, 21, 24, 29</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>~, 22, 23, 24, 26</t>
+          <t>~, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 29</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">

--- a/INFORMATIVO 16° GRE.xlsx
+++ b/INFORMATIVO 16° GRE.xlsx
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>~, 24, 28, 29</t>
+          <t>~, 24, 28, 29, 30</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~, 22, 23, 24, 29</t>
+          <t>~, 22, 23, 24, 29, 30</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~, 29</t>
+          <t>~, 29, 30</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>~, 24, 29</t>
+          <t>~, 24, 29, 30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>~, 24</t>
+          <t>~, 24, 30</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>~, 21, 22, 23, 24, 26, 27, 28, 29</t>
+          <t>~, 21, 22, 23, 24, 26, 27, 28, 29, 30</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">

--- a/INFORMATIVO 16° GRE.xlsx
+++ b/INFORMATIVO 16° GRE.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 01</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">

--- a/INFORMATIVO 16° GRE.xlsx
+++ b/INFORMATIVO 16° GRE.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 03, 04</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">

--- a/INFORMATIVO 16° GRE.xlsx
+++ b/INFORMATIVO 16° GRE.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 07, 08</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 06, 07, 08</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 06, 08, 10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 06, 08</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08, 10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08, 10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~, 01, 04</t>
+          <t>~, 01, 04, 05, 06, 07, 08</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08, 10</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08, 10</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 07</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>~, 01, 03</t>
+          <t>~, 01, 03, 05, 07, 08</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 06</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 07</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 07, 08</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 07, 08</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 07, 08</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 08</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 06, 07, 08</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>~, 01, 03</t>
+          <t>~, 01, 03, 05, 06, 07, 08</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>~, 01, 03</t>
+          <t>~, 01, 03, 06</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~, 07, 08</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>~, 01</t>
+          <t>~, 01, 08</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>~, 01, 03, 04</t>
+          <t>~, 01, 03, 04, 05, 06, 07, 08, 10</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
